--- a/refs/heads/rc2/StructureDefinition-svc-qr-uvcei.xlsx
+++ b/refs/heads/rc2/StructureDefinition-svc-qr-uvcei.xlsx
@@ -408,7 +408,7 @@
     <t>ID of the Public Health Authority</t>
   </si>
   <si>
-    <t>svc-qr-uvcei.protool</t>
+    <t>svc-qr-uvcei.protocol</t>
   </si>
   <si>
     <t>Vaccination Protocol</t>
